--- a/manuscript/Dataset_1_SuppInfo.xlsx
+++ b/manuscript/Dataset_1_SuppInfo.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adroghini\Documents\bering-invaders\manuscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda_droghini/Documents/ACCS/Invasives/git_repo/manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA00E01-FB38-5F44-992B-90E16B4C5D6E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8190" yWindow="465" windowWidth="25605" windowHeight="15540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Appendix-A" sheetId="2" r:id="rId1"/>
@@ -798,9 +799,6 @@
     <t>35 (4,R2*)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cite as: </t>
-  </si>
-  <si>
     <t>Greene, K. E., Zimmerman, J. L., Laney, R. W., and J. C. Thomas-Blate. 2009. Atlantic coast diadromous fish habitat: A review of utilization, threats, recommendations for conservation, and research needs. Atlantic States Marine Fisheries Commission Habitat Management Series No. 9, Washington, D.C., USA.</t>
   </si>
   <si>
@@ -1769,13 +1767,46 @@
   </si>
   <si>
     <t>Tritia obsoleta</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cite as: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Droghini, A., A. S. Fischbach, J. Watson, and J. P. Reimer. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">In prep. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Limits to bioinvasions in the Bering Sea: Predicting suitable conditions from regional ocean models.  </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1938,6 +1969,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -2788,33 +2826,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A10:K52" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <sortState ref="A11:K52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A10:K52" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:K52">
     <sortCondition ref="A11:A52"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="scientific_name" dataDxfId="14"/>
-    <tableColumn id="2" name="survival_temp_min" dataDxfId="13"/>
-    <tableColumn id="3" name="survival_temp_max" dataDxfId="12"/>
-    <tableColumn id="4" name="survival_salinity_min" dataDxfId="11"/>
-    <tableColumn id="5" name="survival_salinity_max" dataDxfId="10"/>
-    <tableColumn id="6" name="repro_temp_min" dataDxfId="9"/>
-    <tableColumn id="7" name="repro_temp_max" dataDxfId="8"/>
-    <tableColumn id="8" name="repro_salinity_min" dataDxfId="7"/>
-    <tableColumn id="9" name="repro_salinity_max" dataDxfId="6"/>
-    <tableColumn id="10" name="Notes" dataDxfId="5"/>
-    <tableColumn id="11" name="References" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="scientific_name" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="survival_temp_min" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="survival_temp_max" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="survival_salinity_min" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="survival_salinity_max" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="repro_temp_min" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="repro_temp_max" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="repro_salinity_min" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="repro_salinity_max" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Notes" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="References" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B45" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A1:B45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:B45" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:B45" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="short_citation" dataDxfId="1"/>
-    <tableColumn id="2" name="full_citation" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="short_citation" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="full_citation" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3082,33 +3120,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="91.7109375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="78.42578125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="91.6640625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="78.5" style="7" customWidth="1"/>
     <col min="12" max="19" width="53" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="5"/>
+    <col min="20" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -3119,7 +3157,7 @@
       <c r="H1" s="28"/>
       <c r="I1" s="28"/>
     </row>
-    <row r="2" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -3130,9 +3168,9 @@
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
     </row>
-    <row r="3" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -3143,9 +3181,9 @@
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
     </row>
-    <row r="4" spans="1:11" s="13" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="13" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -3156,9 +3194,9 @@
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
     </row>
-    <row r="5" spans="1:11" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
@@ -3169,7 +3207,7 @@
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
     </row>
-    <row r="6" spans="1:11" s="13" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="13" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -3180,9 +3218,9 @@
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>257</v>
+        <v>345</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
@@ -3193,7 +3231,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -3203,7 +3241,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="10" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>236</v>
       </c>
@@ -3238,7 +3276,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="10" customFormat="1" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
@@ -3267,13 +3305,13 @@
         <v>109</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>12</v>
       </c>
@@ -3305,10 +3343,10 @@
         <v>246</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
@@ -3337,10 +3375,10 @@
         <v>120</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
@@ -3369,10 +3407,10 @@
         <v>11</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>15</v>
       </c>
@@ -3404,10 +3442,10 @@
         <v>249</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>16</v>
       </c>
@@ -3436,10 +3474,10 @@
         <v>138</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>17</v>
       </c>
@@ -3468,10 +3506,10 @@
         <v>138</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
@@ -3500,10 +3538,10 @@
         <v>138</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>19</v>
       </c>
@@ -3535,10 +3573,10 @@
         <v>248</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>20</v>
       </c>
@@ -3570,12 +3608,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>148</v>
@@ -3593,19 +3631,19 @@
         <v>143</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>162</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>22</v>
       </c>
@@ -3634,13 +3672,13 @@
         <v>174</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>23</v>
       </c>
@@ -3675,7 +3713,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="12" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>24</v>
       </c>
@@ -3707,30 +3745,30 @@
         <v>250</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>315</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>316</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>156</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F25" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>319</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>320</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>142</v>
@@ -3739,10 +3777,10 @@
         <v>138</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>26</v>
       </c>
@@ -3771,10 +3809,10 @@
         <v>138</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>27</v>
       </c>
@@ -3806,10 +3844,10 @@
         <v>251</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>28</v>
       </c>
@@ -3838,13 +3876,13 @@
         <v>159</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>29</v>
       </c>
@@ -3873,10 +3911,10 @@
         <v>138</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>30</v>
       </c>
@@ -3905,13 +3943,13 @@
         <v>122</v>
       </c>
       <c r="J30" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="K30" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="K30" s="17" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>31</v>
       </c>
@@ -3940,10 +3978,10 @@
         <v>138</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>32</v>
       </c>
@@ -3972,13 +4010,13 @@
         <v>11</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>33</v>
       </c>
@@ -4007,10 +4045,10 @@
         <v>138</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>34</v>
       </c>
@@ -4039,10 +4077,10 @@
         <v>138</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>35</v>
       </c>
@@ -4071,10 +4109,10 @@
         <v>138</v>
       </c>
       <c r="K35" s="17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>36</v>
       </c>
@@ -4103,15 +4141,15 @@
         <v>138</v>
       </c>
       <c r="K36" s="17" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="12" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>137</v>
@@ -4123,7 +4161,7 @@
         <v>199</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>137</v>
@@ -4135,13 +4173,13 @@
         <v>138</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>38</v>
       </c>
@@ -4170,10 +4208,10 @@
         <v>154</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>39</v>
       </c>
@@ -4202,10 +4240,10 @@
         <v>132</v>
       </c>
       <c r="K39" s="17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>40</v>
       </c>
@@ -4234,10 +4272,10 @@
         <v>214</v>
       </c>
       <c r="K40" s="17" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>41</v>
       </c>
@@ -4266,10 +4304,10 @@
         <v>213</v>
       </c>
       <c r="K41" s="17" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="12" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>42</v>
       </c>
@@ -4301,10 +4339,10 @@
         <v>253</v>
       </c>
       <c r="K42" s="17" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>43</v>
       </c>
@@ -4333,10 +4371,10 @@
         <v>138</v>
       </c>
       <c r="K43" s="17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="12" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>44</v>
       </c>
@@ -4365,13 +4403,13 @@
         <v>110</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K44" s="17" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>45</v>
       </c>
@@ -4406,7 +4444,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>46</v>
       </c>
@@ -4435,10 +4473,10 @@
         <v>138</v>
       </c>
       <c r="K46" s="17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="12" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>47</v>
       </c>
@@ -4470,10 +4508,10 @@
         <v>97</v>
       </c>
       <c r="K47" s="17" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>48</v>
       </c>
@@ -4502,10 +4540,10 @@
         <v>232</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>49</v>
       </c>
@@ -4534,12 +4572,12 @@
         <v>138</v>
       </c>
       <c r="K49" s="17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>110</v>
@@ -4566,10 +4604,10 @@
         <v>138</v>
       </c>
       <c r="K50" s="17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>50</v>
       </c>
@@ -4598,10 +4636,10 @@
         <v>138</v>
       </c>
       <c r="K51" s="17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>51</v>
       </c>
@@ -4630,10 +4668,10 @@
         <v>138</v>
       </c>
       <c r="K52" s="17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
@@ -4660,20 +4698,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="178" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>53</v>
       </c>
@@ -4681,15 +4719,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>65</v>
       </c>
@@ -4697,111 +4735,111 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>81</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>100</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>98</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>61</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>99</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>78</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>60</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>89</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>84</v>
       </c>
@@ -4809,47 +4847,47 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>80</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>95</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>79</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>88</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>82</v>
       </c>
@@ -4857,23 +4895,23 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>101</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>76</v>
       </c>
@@ -4881,7 +4919,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>94</v>
       </c>
@@ -4889,55 +4927,55 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>86</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>87</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>71</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>91</v>
       </c>
@@ -4945,63 +4983,63 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>75</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>67</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>64</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="B39" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="B39" s="19" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>73</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>59</v>
       </c>
@@ -5009,32 +5047,32 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>68</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="B45" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="B45" s="19" t="s">
-        <v>329</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B44">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B44">
     <sortCondition ref="A2:A44"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5045,28 +5083,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="16" width="53" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="8.85546875" style="3"/>
+    <col min="17" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5095,7 +5133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -5124,7 +5162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -5153,7 +5191,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -5182,7 +5220,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -5211,7 +5249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -5240,7 +5278,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -5269,7 +5307,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -5298,7 +5336,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -5327,7 +5365,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -5356,7 +5394,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -5385,7 +5423,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -5414,7 +5452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -5443,7 +5481,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
@@ -5472,7 +5510,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5501,7 +5539,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5530,7 +5568,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
@@ -5559,7 +5597,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -5588,7 +5626,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
@@ -5617,7 +5655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -5646,7 +5684,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
@@ -5675,7 +5713,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
@@ -5704,7 +5742,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
@@ -5733,7 +5771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
@@ -5762,7 +5800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
@@ -5791,7 +5829,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
@@ -5820,7 +5858,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
@@ -5849,7 +5887,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
@@ -5878,7 +5916,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>38</v>
       </c>
@@ -5907,7 +5945,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>39</v>
       </c>
@@ -5936,7 +5974,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>40</v>
       </c>
@@ -5965,7 +6003,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>41</v>
       </c>
@@ -5994,7 +6032,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>42</v>
       </c>
@@ -6023,7 +6061,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>43</v>
       </c>
@@ -6052,7 +6090,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>44</v>
       </c>
@@ -6081,7 +6119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>45</v>
       </c>
@@ -6110,7 +6148,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>46</v>
       </c>
@@ -6139,7 +6177,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -6168,7 +6206,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>48</v>
       </c>
@@ -6197,7 +6235,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>49</v>
       </c>
@@ -6226,9 +6264,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B41" s="4">
         <v>0</v>
@@ -6255,7 +6293,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>50</v>
       </c>
@@ -6284,7 +6322,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>51</v>
       </c>
@@ -6314,7 +6352,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:P43">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P43">
     <sortCondition ref="A2:A43"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
